--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iingy\Desktop\project\DataPreprocess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538EC22D-DB12-49E7-9A03-97D5C59BBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2518C-1C1A-46CC-9F3B-B096B084F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33627,7 +33627,7 @@
   <dimension ref="A1:AS323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AS2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
